--- a/releases/3.2.0/rdf/cpsv-ap.xlsx
+++ b/releases/3.2.0/rdf/cpsv-ap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Documents\GitHub\CPSV-AP\releases\3.1.1\rdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Documents\GitHub\CPSV-AP\releases\3.2.0\rdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA7ADF33-92B5-4A69-86C8-1E2E5365429D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419BECDA-5ED6-46DD-B19C-55BF125E9D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="448">
   <si>
     <t>Dit Excel workbook bevat macro's om het editeren van tags en notes in Enterprise Architect modellen binnen OSLO context te automatiseren.</t>
   </si>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF91FD-536E-4730-AE80-834CE542344D}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView tabSelected="1" topLeftCell="D78" workbookViewId="0">
+      <selection activeCell="G83" sqref="G83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7265625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3106,9 +3106,7 @@
       <c r="E83" s="19" t="s">
         <v>419</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>227</v>
-      </c>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">

--- a/releases/3.2.0/rdf/cpsv-ap.xlsx
+++ b/releases/3.2.0/rdf/cpsv-ap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\estani002\Documents\GitHub\CPSV-AP\releases\3.2.0\rdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419BECDA-5ED6-46DD-B19C-55BF125E9D4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68E5328-45B1-4416-AC6F-4BB4CF84194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1242,9 +1242,6 @@
     <t>rdfs:label@en</t>
   </si>
   <si>
-    <t>vann:usageNote@en</t>
-  </si>
-  <si>
     <t>The main contact information of the resource.</t>
   </si>
   <si>
@@ -1444,6 +1441,9 @@
   </si>
   <si>
     <t>The recommended Controlled vocabulary to be used is the &lt;a href="https://op.europa.eu/en/web/eu-vocabularies/dataset/-/resource?uri=http://publications.europa.eu/resource/dataset/business-event"&gt;Business Event&lt;/a&gt; Vocabulary maintained by the Publications Office of the EU.</t>
+  </si>
+  <si>
+    <t>skos:scopeNote@en</t>
   </si>
 </sst>
 </file>
@@ -1882,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CF91FD-536E-4730-AE80-834CE542344D}">
   <dimension ref="A1:G157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D78" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.7265625" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1896,7 +1896,7 @@
         <v>356</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C1" s="12"/>
     </row>
@@ -1972,7 +1972,7 @@
         <v>372</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C9" s="12"/>
     </row>
@@ -1981,7 +1981,7 @@
         <v>373</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C10" s="12"/>
     </row>
@@ -1990,7 +1990,7 @@
         <v>374</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C11" s="12"/>
     </row>
@@ -2032,16 +2032,16 @@
         <v>383</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>384</v>
+        <v>447</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>362</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -2058,7 +2058,7 @@
         <v>31</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2066,7 +2066,7 @@
         <v>38</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>37</v>
@@ -2075,7 +2075,7 @@
         <v>39</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2092,7 +2092,7 @@
         <v>34</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,7 +2109,7 @@
         <v>66</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2123,7 +2123,7 @@
         <v>15</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2137,7 +2137,7 @@
         <v>41</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2154,7 +2154,7 @@
         <v>46</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2168,7 +2168,7 @@
         <v>3</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2185,7 +2185,7 @@
         <v>50</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2202,7 +2202,7 @@
         <v>54</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -2219,7 +2219,7 @@
         <v>58</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2233,7 +2233,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2241,7 +2241,7 @@
         <v>62</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>61</v>
@@ -2250,7 +2250,7 @@
         <v>63</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2258,16 +2258,16 @@
         <v>92</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>91</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2275,16 +2275,16 @@
         <v>68</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -2298,7 +2298,7 @@
         <v>75</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -2306,16 +2306,16 @@
         <v>80</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="38" customHeight="1" x14ac:dyDescent="0.25">
@@ -2323,16 +2323,16 @@
         <v>83</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>82</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="94" customHeight="1" x14ac:dyDescent="0.25">
@@ -2340,16 +2340,16 @@
         <v>79</v>
       </c>
       <c r="B36" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2363,7 +2363,7 @@
         <v>107</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="47" customHeight="1" x14ac:dyDescent="0.25">
@@ -2371,13 +2371,13 @@
         <v>85</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>84</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2385,16 +2385,16 @@
         <v>93</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>94</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2402,16 +2402,16 @@
         <v>96</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>95</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="57.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2419,33 +2419,33 @@
         <v>102</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>442</v>
       </c>
       <c r="D42" s="7" t="s">
         <v>97</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2453,16 +2453,16 @@
         <v>90</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C43" s="7" t="s">
         <v>89</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2470,7 +2470,7 @@
         <v>104</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>103</v>
@@ -2479,7 +2479,7 @@
         <v>105</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2496,10 +2496,10 @@
         <v>74</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F45" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2507,16 +2507,16 @@
         <v>70</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C46" s="7" t="s">
         <v>69</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>112</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2547,7 +2547,7 @@
         <v>33</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>15</v>
       </c>
       <c r="E49" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2578,7 +2578,7 @@
         <v>117</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2592,7 +2592,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2609,7 +2609,7 @@
         <v>119</v>
       </c>
       <c r="E52" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2623,7 +2623,7 @@
         <v>122</v>
       </c>
       <c r="E53" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2640,7 +2640,7 @@
         <v>221</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>187</v>
@@ -2657,10 +2657,10 @@
         <v>4</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G55" s="7"/>
     </row>
@@ -2669,16 +2669,16 @@
         <v>145</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>144</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2692,7 +2692,7 @@
         <v>33</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2706,7 +2706,7 @@
         <v>15</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="39.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2723,7 +2723,7 @@
         <v>149</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2740,7 +2740,7 @@
         <v>151</v>
       </c>
       <c r="E60" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2748,16 +2748,16 @@
         <v>155</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E61" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2765,16 +2765,16 @@
         <v>79</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C62" s="7" t="s">
         <v>78</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2782,16 +2782,16 @@
         <v>158</v>
       </c>
       <c r="B63" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C63" s="7" t="s">
         <v>160</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2799,13 +2799,13 @@
         <v>157</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C64" s="7" t="s">
         <v>156</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="41.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,7 +2822,7 @@
         <v>270</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
         <v>272</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2850,7 +2850,7 @@
         <v>275</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2864,7 +2864,7 @@
         <v>278</v>
       </c>
       <c r="E68" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2872,16 +2872,16 @@
         <v>155</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C69" s="7" t="s">
         <v>154</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E69" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2895,10 +2895,10 @@
         <v>160</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E70" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2912,7 +2912,7 @@
         <v>206</v>
       </c>
       <c r="E71" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2929,7 +2929,7 @@
         <v>211</v>
       </c>
       <c r="E72" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2943,7 +2943,7 @@
         <v>33</v>
       </c>
       <c r="E73" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2957,7 +2957,7 @@
         <v>15</v>
       </c>
       <c r="E74" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2971,7 +2971,7 @@
         <v>214</v>
       </c>
       <c r="E75" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2979,16 +2979,16 @@
         <v>153</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C76" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E76" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -2996,16 +2996,16 @@
         <v>217</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C77" s="7" t="s">
         <v>216</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E77" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="48.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3022,7 +3022,7 @@
         <v>188</v>
       </c>
       <c r="E78" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3039,7 +3039,7 @@
         <v>191</v>
       </c>
       <c r="E79" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3053,7 +3053,7 @@
         <v>15</v>
       </c>
       <c r="E80" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3067,7 +3067,7 @@
         <v>3</v>
       </c>
       <c r="E81" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3084,10 +3084,10 @@
         <v>74</v>
       </c>
       <c r="E82" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F82" s="19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3104,7 +3104,7 @@
         <v>164</v>
       </c>
       <c r="E83" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G83" s="7"/>
     </row>
@@ -3119,7 +3119,7 @@
         <v>33</v>
       </c>
       <c r="E84" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,7 +3133,7 @@
         <v>15</v>
       </c>
       <c r="E85" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="86" customHeight="1" x14ac:dyDescent="0.25">
@@ -3150,7 +3150,7 @@
         <v>169</v>
       </c>
       <c r="E86" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3164,7 +3164,7 @@
         <v>3</v>
       </c>
       <c r="E87" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v>173</v>
       </c>
       <c r="E88" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3195,7 +3195,7 @@
         <v>4</v>
       </c>
       <c r="E89" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3212,7 +3212,7 @@
         <v>184</v>
       </c>
       <c r="E90" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="36.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3226,7 +3226,7 @@
         <v>176</v>
       </c>
       <c r="E91" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3243,7 +3243,7 @@
         <v>261</v>
       </c>
       <c r="E92" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3260,7 +3260,7 @@
         <v>266</v>
       </c>
       <c r="E93" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3274,7 +3274,7 @@
         <v>15</v>
       </c>
       <c r="E94" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3291,7 +3291,7 @@
         <v>225</v>
       </c>
       <c r="E95" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>187</v>
@@ -3308,10 +3308,10 @@
         <v>4</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E96" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G96" s="7"/>
     </row>
@@ -3329,7 +3329,7 @@
         <v>137</v>
       </c>
       <c r="E97" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3343,7 +3343,7 @@
         <v>33</v>
       </c>
       <c r="E98" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v>15</v>
       </c>
       <c r="E99" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3374,7 +3374,7 @@
         <v>117</v>
       </c>
       <c r="E100" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3388,7 +3388,7 @@
         <v>3</v>
       </c>
       <c r="E101" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3405,7 +3405,7 @@
         <v>143</v>
       </c>
       <c r="E102" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3422,7 +3422,7 @@
         <v>283</v>
       </c>
       <c r="E103" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3436,7 +3436,7 @@
         <v>33</v>
       </c>
       <c r="E104" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3450,7 +3450,7 @@
         <v>15</v>
       </c>
       <c r="E105" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3467,7 +3467,7 @@
         <v>289</v>
       </c>
       <c r="E106" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,7 +3481,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -3498,7 +3498,7 @@
         <v>197</v>
       </c>
       <c r="E108" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>11</v>
@@ -3518,7 +3518,7 @@
         <v>200</v>
       </c>
       <c r="E109" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3535,7 +3535,7 @@
         <v>202</v>
       </c>
       <c r="E110" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3552,7 +3552,7 @@
         <v>293</v>
       </c>
       <c r="E111" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3566,7 +3566,7 @@
         <v>15</v>
       </c>
       <c r="E112" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3580,7 +3580,7 @@
         <v>3</v>
       </c>
       <c r="E113" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3594,7 +3594,7 @@
         <v>4</v>
       </c>
       <c r="E114" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3608,7 +3608,7 @@
         <v>124</v>
       </c>
       <c r="E115" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3622,7 +3622,7 @@
         <v>180</v>
       </c>
       <c r="E116" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="80" customHeight="1" x14ac:dyDescent="0.25">
@@ -3639,7 +3639,7 @@
         <v>243</v>
       </c>
       <c r="E117" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G117" t="s">
         <v>249</v>
@@ -3656,7 +3656,7 @@
         <v>33</v>
       </c>
       <c r="E118" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3670,7 +3670,7 @@
         <v>15</v>
       </c>
       <c r="E119" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="E120" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="50.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3692,13 +3692,13 @@
         <v>132</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C121" s="7" t="s">
         <v>133</v>
       </c>
       <c r="E121" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -3706,13 +3706,13 @@
         <v>203</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C122" s="7" t="s">
         <v>204</v>
       </c>
       <c r="E122" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
@@ -3720,13 +3720,13 @@
         <v>238</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C123" s="7" t="s">
         <v>239</v>
       </c>
       <c r="E123" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="53.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,16 +3734,16 @@
         <v>227</v>
       </c>
       <c r="B124" s="23" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C124" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D124" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E124" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.25">
@@ -3757,7 +3757,7 @@
         <v>33</v>
       </c>
       <c r="E125" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
         <v>15</v>
       </c>
       <c r="E126" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3788,7 +3788,7 @@
         <v>236</v>
       </c>
       <c r="E127" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3805,7 +3805,7 @@
         <v>232</v>
       </c>
       <c r="E128" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3819,7 +3819,7 @@
         <v>98</v>
       </c>
       <c r="E129" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -3827,13 +3827,13 @@
         <v>24</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C130" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E130" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.25">
@@ -3850,7 +3850,7 @@
         <v>129</v>
       </c>
       <c r="E131" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3858,13 +3858,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C132" s="7" t="s">
         <v>130</v>
       </c>
       <c r="E132" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="66.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
         <v>248</v>
       </c>
       <c r="E133" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="68.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3892,7 +3892,7 @@
         <v>5</v>
       </c>
       <c r="E134" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3906,7 +3906,7 @@
         <v>15</v>
       </c>
       <c r="E135" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3914,13 +3914,13 @@
         <v>17</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C136" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.25">
@@ -3934,7 +3934,7 @@
         <v>26</v>
       </c>
       <c r="E137" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3942,16 +3942,16 @@
         <v>18</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C138" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E138" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3968,7 +3968,7 @@
         <v>310</v>
       </c>
       <c r="E139" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -3985,7 +3985,7 @@
         <v>314</v>
       </c>
       <c r="E140" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4002,7 +4002,7 @@
         <v>318</v>
       </c>
       <c r="E141" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4019,7 +4019,7 @@
         <v>322</v>
       </c>
       <c r="E142" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4036,7 +4036,7 @@
         <v>326</v>
       </c>
       <c r="E143" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4053,7 +4053,7 @@
         <v>330</v>
       </c>
       <c r="E144" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4070,7 +4070,7 @@
         <v>334</v>
       </c>
       <c r="E145" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4087,7 +4087,7 @@
         <v>338</v>
       </c>
       <c r="E146" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4104,7 +4104,7 @@
         <v>342</v>
       </c>
       <c r="E147" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="35" customHeight="1" x14ac:dyDescent="0.25">
@@ -4121,7 +4121,7 @@
         <v>346</v>
       </c>
       <c r="E148" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -4138,7 +4138,7 @@
         <v>350</v>
       </c>
       <c r="E149" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4155,7 +4155,7 @@
         <v>354</v>
       </c>
       <c r="E150" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4163,13 +4163,13 @@
         <v>11</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C151" s="7" t="s">
         <v>237</v>
       </c>
       <c r="E151" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G151" t="s">
         <v>13</v>
@@ -4189,7 +4189,7 @@
         <v>306</v>
       </c>
       <c r="E152" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4203,7 +4203,7 @@
         <v>301</v>
       </c>
       <c r="E153" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="41" customHeight="1" x14ac:dyDescent="0.25">
@@ -4220,7 +4220,7 @@
         <v>299</v>
       </c>
       <c r="E154" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4234,7 +4234,7 @@
         <v>251</v>
       </c>
       <c r="E155" s="19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4248,7 +4248,7 @@
         <v>33</v>
       </c>
       <c r="E156" s="19" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -4265,7 +4265,7 @@
         <v>257</v>
       </c>
       <c r="E157" s="19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
